--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,60 +466,70 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>surfaceiranproducturl</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>micropple.ir</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>microppleproducturl</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>mysurface.ir</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>mysurfaceproducturl</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>yasinrayan.com</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>yasinrayanproducturl</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>surfacekar.com</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>surfacekarproducturl</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>parsanme.com</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>parsanmeproducturl</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>surface pro 11</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>raayaatech.com</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>raayaatechproducturl</t>
         </is>
@@ -551,59 +561,65 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1,282,290,000 ريال</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98.290.000تومان - 98.490.000تومان</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>130,000,000 تومان</t>
-        </is>
-      </c>
+          <t>https://surfaceiran.com/p/67c44ccaa2bbdf2a09ef1201/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-7-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-512GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://mysurface.ir/store/product/surface-pro-10-black-7-16-512/</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-%d9%85%d8%b4%da%a9%db%8c-sq2-16gb-512gb-ssd/</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>۱۲۸,۹۰۰,۰۰۰تومان</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10core-ultra-7-ram-16gb-512gb-wifi/</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>۱۲۶,۰۹۹,۰۰۰تومان</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-16gb-512gb-ssd-%da%a9%d9%be%db%8c/</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>126,199,000</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>https://parsanme.com/product/PI-34516529/Microsoft-Surface-Pro-10-13inch-Core-Ultra-7-16GB-512GB-WiFi</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>132,600,000</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>https://raayaatech.com/product/5877032</t>
         </is>
@@ -636,42 +652,44 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0تومان - 7.900.000تومان - 9.990.000تومان</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>130,000,000 تومان</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://mysurface.ir/store/product/surface-pro-10-black-7-16-512/</t>
+          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10core-ultra-7-ram-32gb-512gb-wifi/</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>۱۵۹,۰۰۰,۰۰۰تومان</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%84%d9%be-%d8%aa%d8%a7%d9%be-6-surface-laptop-6-13-5inch-core-ultra-7-ram-32gb-512gb-ssd/</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-32gb-512gb-ssd-%da%a9%d9%be%db%8c/</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>159,000,000</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>https://parsanme.com/product/PI-18136129/Microsoft-Surface-Laptop-6-13-inch-Core-Ultra-7-32GB-512GB</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -700,46 +718,48 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - 9.990.000تومان</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
+          <t>https://micropple.ir/product/surface-pro-10-coreultra7-64-1tb-wifi/</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>https://mysurface.ir/store/product/surface-pro-10-platinum-7-64-1/</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>۲۳۹,۹۰۰,۰۰۰تومان</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10core-ultra-7-ram-64gb-1tb-wifi/</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-64gb-1t-ssd-%da%a9%d9%be%db%8c/</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>238,999,000</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>https://parsanme.com/product/PI-79671387/Microsoft-Surface-Pro-10-13inch-Core-Ultra-7-64GB-1TB-WiFi</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -768,46 +788,48 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>94.290.000تومان</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://mysurface.ir/store/product/surface-pro-11-x-plus-16-512/</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-256gb/</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-7-%d9%85%d8%b4%da%a9%db%8c-ci7-16gb-256gb-ssd-%d8%a8%d9%87%d9%85%d8%b1%d8%a7%d9%87-%da%a9%db%8c%d8%a8%d9%88%d8%b1%d8%af-%d9%85%d8%b4%da%a9%db%8c/</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>۸۷,۹۰۰,۰۰۰تومان</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-elite-surface-prox-elite-wi-fi-snapdragon-x-plus-16gb-256gb-ssd/</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
         <is>
           <t>92,899,000</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
         <is>
           <t>91,500,000</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>https://raayaatech.com/product/5812228</t>
         </is>
@@ -840,46 +862,48 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>94.290.000تومان</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://mysurface.ir/store/product/surface-pro-11-x-plus-16-512/</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-256gb/</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-7-%d9%85%d8%b4%da%a9%db%8c-ci7-16gb-256gb-ssd-%d8%a8%d9%87%d9%85%d8%b1%d8%a7%d9%87-%da%a9%db%8c%d8%a8%d9%88%d8%b1%d8%af-%d9%85%d8%b4%da%a9%db%8c/</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>۸۷,۹۰۰,۰۰۰تومان</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-elite-surface-prox-elite-wi-fi-snapdragon-x-plus-16gb-256gb-ssd/</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
         <is>
           <t>92,899,000</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
         <is>
           <t>91,500,000</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>https://raayaatech.com/product/5812228</t>
         </is>
@@ -912,54 +936,48 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>98.290.000تومان - 98.490.000تومان</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://mysurface.ir/store/product/surface-pro-11-x-plus-16-512/</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-%d9%85%d8%b4%da%a9%db%8c-sq2-16gb-512gb-ssd/</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>۹۴,۴۰۰,۰۰۰تومان</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-elite-surface-prox-elite-wi-fi-snapdragon-x-plus-16gb-512gb-ssd/</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>۹۳,۸۹۰,۰۰۰تومان</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-surface-pro11-wi-fi-snapdragon-x-plus-16gb-512gb-ssd/</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
         <is>
           <t>92,899,000</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
         <is>
           <t>96,200,000</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>https://raayaatech.com/product/5877031</t>
         </is>
@@ -992,54 +1010,48 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>98.290.000تومان - 98.490.000تومان</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://mysurface.ir/store/product/surface-pro-11-x-plus-16-512/</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-%d9%85%d8%b4%da%a9%db%8c-sq2-16gb-512gb-ssd/</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>۹۴,۴۰۰,۰۰۰تومان</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-elite-surface-prox-elite-wi-fi-snapdragon-x-plus-16gb-512gb-ssd/</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>۹۳,۸۹۰,۰۰۰تومان</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-surface-pro11-wi-fi-snapdragon-x-plus-16gb-512gb-ssd/</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
         <is>
           <t>92,899,000</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
         <is>
           <t>96,200,000</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>https://raayaatech.com/product/5877031</t>
         </is>
@@ -1072,46 +1084,48 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>127.990.000تومان</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://mysurface.ir/store/product/surface-pro-11-x-elite-32-1tb/</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-%d9%85%d8%b4%da%a9%db%8c-sq2-16gb-512gb-ssd/</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>۱۲۲,۹۰۰,۰۰۰تومان</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3elite-surface-prox-elite-wi-fi-snapdragon-x-elite-16gb-512gb-ssd/</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
         <is>
           <t>128,390,000</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>https://parsanme.com/product/PI-22996965/Surface-Laptop-7-Snapdragon-X-Elite-16GB-512GB-13.8inch</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
         <is>
           <t>125,300,000</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>https://raayaatech.com/product/5812227</t>
         </is>
@@ -1144,46 +1158,48 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>127.990.000تومان</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://mysurface.ir/store/product/surface-pro-11-x-elite-32-1tb/</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-%d9%85%d8%b4%da%a9%db%8c-sq2-16gb-512gb-ssd/</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>۱۲۲,۹۰۰,۰۰۰تومان</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3elite-surface-prox-elite-wi-fi-snapdragon-x-elite-16gb-512gb-ssd/</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
         <is>
           <t>128,390,000</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>https://parsanme.com/product/PI-22996965/Surface-Laptop-7-Snapdragon-X-Elite-16GB-512GB-13.8inch</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
         <is>
           <t>125,300,000</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>https://raayaatech.com/product/5812227</t>
         </is>

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -572,17 +572,9 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-%d9%85%d8%b4%da%a9%db%8c-sq2-16gb-512gb-ssd/</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>۱۲۸,۹۰۰,۰۰۰تومان</t>
@@ -595,7 +587,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>۱۲۶,۰۹۹,۰۰۰تومان</t>
+          <t>۱۲۶,۰۹۹,۰۰۰</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -603,20 +595,12 @@
           <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-16gb-512gb-ssd-%da%a9%d9%be%db%8c/</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>126,199,000</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>https://parsanme.com/product/PI-34516529/Microsoft-Surface-Pro-10-13inch-Core-Ultra-7-16GB-512GB-WiFi</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>132,600,000</t>
+          <t>130,000,000</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -654,11 +638,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -677,16 +657,8 @@
           <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-32gb-512gb-ssd-%da%a9%d9%be%db%8c/</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>159,000,000</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>https://parsanme.com/product/PI-18136129/Microsoft-Surface-Laptop-6-13-inch-Core-Ultra-7-32GB-512GB</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -720,17 +692,9 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro-10-coreultra7-64-1tb-wifi/</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://mysurface.ir/store/product/surface-pro-10-platinum-7-64-1/</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>۲۳۹,۹۰۰,۰۰۰تومان</t>
@@ -747,16 +711,8 @@
           <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-64gb-1t-ssd-%da%a9%d9%be%db%8c/</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>238,999,000</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>https://parsanme.com/product/PI-79671387/Microsoft-Surface-Pro-10-13inch-Core-Ultra-7-64GB-1TB-WiFi</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -790,50 +746,18 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-256gb/</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-7-%d9%85%d8%b4%da%a9%db%8c-ci7-16gb-256gb-ssd-%d8%a8%d9%87%d9%85%d8%b1%d8%a7%d9%87-%da%a9%db%8c%d8%a8%d9%88%d8%b1%d8%af-%d9%85%d8%b4%da%a9%db%8c/</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>۸۷,۹۰۰,۰۰۰تومان</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-elite-surface-prox-elite-wi-fi-snapdragon-x-plus-16gb-256gb-ssd/</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>92,899,000</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>91,500,000</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>https://raayaatech.com/product/5812228</t>
-        </is>
-      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -864,17 +788,9 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-256gb/</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-7-%d9%85%d8%b4%da%a9%db%8c-ci7-16gb-256gb-ssd-%d8%a8%d9%87%d9%85%d8%b1%d8%a7%d9%87-%da%a9%db%8c%d8%a8%d9%88%d8%b1%d8%af-%d9%85%d8%b4%da%a9%db%8c/</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>۸۷,۹۰۰,۰۰۰تومان</t>
@@ -887,27 +803,11 @@
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>92,899,000</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>91,500,000</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>https://raayaatech.com/product/5812228</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -938,20 +838,12 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-%d9%85%d8%b4%da%a9%db%8c-sq2-16gb-512gb-ssd/</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>۹۴,۴۰۰,۰۰۰تومان</t>
+          <t>۹۳,۵۰۰,۰۰۰تومان</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -963,25 +855,17 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>92,899,000</t>
+          <t>92,600,000</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch</t>
+          <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch?variant[color]=black</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>96,200,000</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>https://raayaatech.com/product/5877031</t>
-        </is>
-      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1012,39 +896,15 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-%d9%85%d8%b4%da%a9%db%8c-sq2-16gb-512gb-ssd/</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>۹۴,۴۰۰,۰۰۰تومان</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-elite-surface-prox-elite-wi-fi-snapdragon-x-plus-16gb-512gb-ssd/</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>92,899,000</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
@@ -1086,17 +946,9 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-%d9%85%d8%b4%da%a9%db%8c-sq2-16gb-512gb-ssd/</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>۱۲۲,۹۰۰,۰۰۰تومان</t>
@@ -1111,18 +963,18 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>128,390,000</t>
+          <t>131,480,000</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://parsanme.com/product/PI-22996965/Surface-Laptop-7-Snapdragon-X-Elite-16GB-512GB-13.8inch</t>
+          <t>https://parsanme.com/product/PI-27434997/Surface-Pro-11-Snapdragon-X-Elite-16GB-512GB-13inch+Surface-Copilot-Pro-X-Keyboard?variant[color]=black</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
-          <t>125,300,000</t>
+          <t>126,400,000</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1160,43 +1012,19 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro-11-oled-2025-intel-ultra-7-32-512gb/</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>https://mysurface.ir/store/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-%d9%85%d8%b4%da%a9%db%8c-sq2-16gb-512gb-ssd/</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>۱۲۲,۹۰۰,۰۰۰تومان</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3elite-surface-prox-elite-wi-fi-snapdragon-x-elite-16gb-512gb-ssd/</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>128,390,000</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>https://parsanme.com/product/PI-22996965/Surface-Laptop-7-Snapdragon-X-Elite-16GB-512GB-13.8inch</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
-          <t>125,300,000</t>
+          <t>126,400,000</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -572,7 +572,11 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
@@ -638,7 +642,11 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -692,7 +700,11 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
@@ -746,7 +758,11 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -788,7 +804,11 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
@@ -837,8 +857,14 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>95290000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://micropple.ir/product/surface-pro11-snapdragon-x-plus-10-core-16-512/</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
@@ -896,7 +922,11 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -946,7 +976,11 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
@@ -1011,8 +1045,14 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>121990000</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://micropple.ir/product/%d8%ae%d8%b1%db%8c%d8%af-%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-11-surface-pro11-snapdragon-x-elite-12-core-16-512/</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,69 +476,54 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>mysurface.ir</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>mysurfaceproducturl</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>yasinrayan.com</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>surfacekar.com</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>surfacekarproducturl</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>parsanme.com</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>parsanmeproducturl</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>raayaatech.com</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>microppleproducturl</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>mysurface.ir</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>mysurfaceproducturl</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>yasinrayan.com</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>yasinrayanproducturl</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>surfacekar.com</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>surfacekarproducturl</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>parsanme.com</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>parsanmeproducturl</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>surface pro 11</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>raayaatech.com</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>raayaatechproducturl</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>surface pro 10</t>
+          <t>Surface Pro 10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -563,7 +548,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,282,290,000 ريال</t>
+          <t>1,268,980,000 ريال</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -572,51 +557,32 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>۱۲۸,۹۰۰,۰۰۰تومان</t>
+          <t>124,699,000</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10core-ultra-7-ram-16gb-512gb-wifi/</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>۱۲۶,۰۹۹,۰۰۰</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-16gb-512gb-ssd-%da%a9%d9%be%db%8c/</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>130,000,000</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>https://raayaatech.com/product/5877032</t>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>surface pro 10</t>
+          <t>Surface Pro 10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -642,39 +608,28 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>۱۵۹,۰۰۰,۰۰۰تومان</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%84%d9%be-%d8%aa%d8%a7%d9%be-6-surface-laptop-6-13-5inch-core-ultra-7-ram-32gb-512gb-ssd/</t>
+          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-32gb-512gb-ssd-%da%a9%d9%be%db%8c/</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-32gb-512gb-ssd-%da%a9%d9%be%db%8c/</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>surface pro 10</t>
+          <t>Surface Pro 10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -700,39 +655,28 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>۲۳۹,۹۰۰,۰۰۰تومان</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10core-ultra-7-ram-64gb-1tb-wifi/</t>
+          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-64gb-1t-ssd-%da%a9%d9%be%db%8c/</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-64gb-1t-ssd-%da%a9%d9%be%db%8c/</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>surface pro 11</t>
+          <t>Surface Pro 11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -758,11 +702,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -770,15 +710,16 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>surface pro 11</t>
+          <t>Surface Pro 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -804,35 +745,24 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>۸۷,۹۰۰,۰۰۰تومان</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-elite-surface-prox-elite-wi-fi-snapdragon-x-plus-16gb-256gb-ssd/</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>surface pro 11</t>
+          <t>Surface Pro 11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -860,43 +790,32 @@
       <c r="H7" t="n">
         <v>95290000</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro11-snapdragon-x-plus-10-core-16-512/</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>۹۳,۵۰۰,۰۰۰تومان</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-elite-surface-prox-elite-wi-fi-snapdragon-x-plus-16gb-512gb-ssd/</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>92,600,000</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>92,570,000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch?variant[color]=black</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch?variant[color]=black</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+          <t>https://micropple.ir/product/surface-pro11-snapdragon-x-plus-10-core-16-512/</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>surface pro 11</t>
+          <t>Surface Pro 11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -922,11 +841,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -934,23 +849,16 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>96,200,000</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>https://raayaatech.com/product/5877031</t>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>surface pro 11</t>
+          <t>Surface Pro 11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -976,51 +884,32 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>۱۲۲,۹۰۰,۰۰۰تومان</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3elite-surface-prox-elite-wi-fi-snapdragon-x-elite-16gb-512gb-ssd/</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>131,480,000</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>131,390,000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>https://parsanme.com/product/PI-27434997/Surface-Pro-11-Snapdragon-X-Elite-16GB-512GB-13inch+Surface-Copilot-Pro-X-Keyboard?variant[color]=black</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>https://parsanme.com/product/PI-27434997/Surface-Pro-11-Snapdragon-X-Elite-16GB-512GB-13inch+Surface-Copilot-Pro-X-Keyboard?variant[color]=black</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>126,400,000</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>https://raayaatech.com/product/5812227</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>surface pro 11</t>
+          <t>Surface Pro 11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1048,11 +937,7 @@
       <c r="H10" t="n">
         <v>121990000</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/%d8%ae%d8%b1%db%8c%d8%af-%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-11-surface-pro11-snapdragon-x-elite-12-core-16-512/</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1060,16 +945,9 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>126,400,000</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>https://raayaatech.com/product/5812227</t>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>https://micropple.ir/product/%d8%ae%d8%b1%db%8c%d8%af-%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-11-surface-pro11-snapdragon-x-elite-12-core-16-512/</t>
         </is>
       </c>
     </row>

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,30 +491,35 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>yasinrayanproducturl</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>surfacekar.com</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>surfacekarproducturl</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>parsanme.com</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>parsanmeproducturl</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>raayaatech.com</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>microppleproducturl</t>
         </is>
@@ -528,17 +533,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ultra 7</t>
+          <t>Ultra 5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16GB</t>
+          <t>8GB</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>512GB</t>
+          <t>256GB</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -546,34 +551,47 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1,268,980,000 ريال</t>
-        </is>
+      <c r="F2" t="n">
+        <v>814890000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://surfaceiran.com/p/67c44ccaa2bbdf2a09ef1201/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-7-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-512GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+          <t>https://surfaceiran.com/p/67c44483a2bbdf2a09ef11ea/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-5-%d8%b1%d9%85-8GB-%d9%87%d8%a7%d8%b1%d8%af-256GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>80000000</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://mysurface.ir/store/product/surface-pro-10-platinum-5-8-256/</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>80800000</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>124,699,000</t>
+          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10core-ultra-5-ram-8gb-256gb-wifi/</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-16gb-512gb-ssd-%da%a9%d9%be%db%8c/</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>83,500,000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-5-ram-8gb-256gb-ssd-2/</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -587,17 +605,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ultra 7</t>
+          <t>Ultra 5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>32GB</t>
+          <t>16GB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>512GB</t>
+          <t>256GB</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -605,22 +623,25 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1126890000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://surfaceiran.com/p/67c44befa2bbdf2a09ef11f2/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-5-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-256GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-32gb-512gb-ssd-%da%a9%d9%be%db%8c/</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -634,17 +655,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ultra 7</t>
+          <t>Ultra 5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>16GB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1T</t>
+          <t>512GB</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,22 +673,25 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>654890000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://surfaceiran.com/p/67c44c0ca2bbdf2a09ef11f5/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-5-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-512GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-64gb-1t-ssd-%da%a9%d9%be%db%8c/</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -676,12 +700,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Surface Pro 11</t>
+          <t>Surface Pro 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X Plus</t>
+          <t>Ultra 7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -696,21 +720,44 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1174890000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://surfaceiran.com/p/67c44c8fa2bbdf2a09ef11fe/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-7-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-256GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>117300000</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10core-ultra-7-ram-16gb-256gb-wifi/</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>115,949,000</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-16gb-256gb-ssd/</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -719,12 +766,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Surface Pro 11</t>
+          <t>Surface Pro 10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X Plus</t>
+          <t>Ultra 7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +781,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>256GB</t>
+          <t>512GB</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -742,18 +789,33 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1259490000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://surfaceiran.com/p/67c44ccaa2bbdf2a09ef1201/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-7-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-512GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>115,949,000</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-16gb-256gb-ssd/</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -767,17 +829,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>X Plus</t>
+          <t>X Elite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16GB</t>
+          <t>32GB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>512GB</t>
+          <t>1T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -787,28 +849,19 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>95290000</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>92,570,000</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch?variant[color]=black</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/surface-pro11-snapdragon-x-plus-10-core-16-512/</t>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -820,7 +873,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>X Plus</t>
+          <t>X Elite</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -835,7 +888,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -843,13 +896,22 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>92900000</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-elite-surface-prox-elite-wi-fi-snapdragon-x-plus-16gb-512gb-ssd/</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -868,12 +930,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16GB</t>
+          <t>64GB</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>512GB</t>
+          <t>1T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -889,18 +951,11 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>131,390,000</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://parsanme.com/product/PI-27434997/Surface-Pro-11-Snapdragon-X-Elite-16GB-512GB-13inch+Surface-Copilot-Pro-X-Keyboard?variant[color]=black</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -924,19 +979,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>512GB</t>
+          <t>1T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>121990000</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -945,9 +998,10 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>https://micropple.ir/product/%d8%ae%d8%b1%db%8c%d8%af-%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-11-surface-pro11-snapdragon-x-elite-12-core-16-512/</t>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Not Found</t>
         </is>
       </c>
     </row>

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,11 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>raayaatechproducturl</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>microppleproducturl</t>
         </is>
       </c>
@@ -559,7 +564,9 @@
           <t>https://surfaceiran.com/p/67c44483a2bbdf2a09ef11ea/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-5-%d8%b1%d9%85-8GB-%d9%87%d8%a7%d8%b1%d8%af-256GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>83590000</v>
+      </c>
       <c r="I2" t="n">
         <v>80000000</v>
       </c>
@@ -568,10 +575,8 @@
           <t>https://mysurface.ir/store/product/surface-pro-10-platinum-5-8-256/</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>80800000</t>
-        </is>
+      <c r="K2" t="n">
+        <v>80800000</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -590,10 +595,19 @@
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>84,200,000</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://raayaatech.com/product/6182725</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>https://micropple.ir/product/surface-pro-10-coreultra5-8-256-wifi/</t>
         </is>
       </c>
     </row>
@@ -631,7 +645,9 @@
           <t>https://surfaceiran.com/p/67c44befa2bbdf2a09ef11f2/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-5-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-256GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>106490000</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -640,10 +656,19 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>108,200,000</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://raayaatech.com/product/5812229</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>https://micropple.ir/product/surface-pro-10-coreultra5-16-256-wifi/</t>
         </is>
       </c>
     </row>
@@ -691,7 +716,8 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -731,13 +757,13 @@
           <t>https://surfaceiran.com/p/67c44c8fa2bbdf2a09ef11fe/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-7-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-256GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>117990000</v>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>117300000</t>
-        </is>
+      <c r="K5" t="n">
+        <v>117300000</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -756,10 +782,19 @@
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>120,600,000</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://raayaatech.com/product/6258086</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>https://micropple.ir/product/surface-pro-10-coreultra7-16-256-wifi/</t>
         </is>
       </c>
     </row>
@@ -814,8 +849,17 @@
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>129,500,000</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
+        <is>
+          <t>https://raayaatech.com/product/5877032</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -859,7 +903,8 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -896,10 +941,8 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>92900000</t>
-        </is>
+      <c r="K8" t="n">
+        <v>92900000</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -910,8 +953,17 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>125,800,000</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
+        <is>
+          <t>https://raayaatech.com/product/5812227</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -955,7 +1007,8 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>
@@ -998,8 +1051,17 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>143,000,000</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr">
+        <is>
+          <t>https://raayaatech.com/product/5812226</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Not Found</t>
         </is>

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -575,8 +575,10 @@
           <t>https://mysurface.ir/store/product/surface-pro-10-platinum-5-8-256/</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>80800000</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>80800000</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -762,8 +764,10 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>117300000</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>117300000</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -835,8 +839,16 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>125300000</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10core-ultra-7-ram-16gb-512gb-wifi/</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>115,949,000</t>
@@ -941,14 +953,8 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>92900000</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-%d8%a7%db%8c%da%a9%d8%b3-elite-surface-prox-elite-wi-fi-snapdragon-x-plus-16gb-512gb-ssd/</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -556,12 +556,14 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>814890000</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>808490000</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://surfaceiran.com/p/67c44483a2bbdf2a09ef11ea/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-5-%d8%b1%d9%85-8GB-%d9%87%d8%a7%d8%b1%d8%af-256GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+          <t>https://surfaceiran.com/p/67c44483a2bbdf2a09ef11ea/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2010%20-%20Core%20Ultra%205%20%D8%B1%D9%85%208GB%20%D9%87%D8%A7%D8%B1%D8%AF%20256GB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20Surface%20Pro</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -575,10 +577,8 @@
           <t>https://mysurface.ir/store/product/surface-pro-10-platinum-5-8-256/</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>80800000</t>
-        </is>
+      <c r="K2" t="n">
+        <v>80800000</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>83,500,000</t>
+          <t>84,490,000</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -639,12 +639,14 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1126890000</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1126890000</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://surfaceiran.com/p/67c44befa2bbdf2a09ef11f2/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-5-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-256GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+          <t>https://surfaceiran.com/p/67c44befa2bbdf2a09ef11f2/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2010%20-%20Core%20Ultra%205%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%20256GB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20Surface%20Pro</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -700,12 +702,14 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>654890000</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>654890000</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://surfaceiran.com/p/67c44c0ca2bbdf2a09ef11f5/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-5-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-512GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+          <t>https://surfaceiran.com/p/67c44c0ca2bbdf2a09ef11f5/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2010%20-%20Core%20Ultra%205%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%20512GB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20Surface%20Pro</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -751,12 +755,14 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1174890000</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1214890000</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://surfaceiran.com/p/67c44c8fa2bbdf2a09ef11fe/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-7-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-256GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+          <t>https://surfaceiran.com/p/67c44c8fa2bbdf2a09ef11fe/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2010%20-%20Core%20Ultra%207%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%20256GB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20Surface%20Pro</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -764,10 +770,8 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>117300000</t>
-        </is>
+      <c r="K5" t="n">
+        <v>117300000</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -776,7 +780,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>115,949,000</t>
+          <t>117,990,000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -828,37 +832,29 @@
           <t>Platinum</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1259490000</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1299490000</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://surfaceiran.com/p/67c44ccaa2bbdf2a09ef1201/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10---Core-Ultra-7-%d8%b1%d9%85-16GB-%d9%87%d8%a7%d8%b1%d8%af-512GB-SSD-%d9%85%d8%a7%db%8c%da%a9%d8%b1%d9%88%d8%b3%d8%a7%d9%81%d8%aa-Surface-Pro</t>
+          <t>https://surfaceiran.com/p/67c44ccaa2bbdf2a09ef1201/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2010%20-%20Core%20Ultra%207%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%20512GB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20Surface%20Pro</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>125300000</t>
-        </is>
+      <c r="K6" t="n">
+        <v>125300000</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>https://www.yasinrayan.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10core-ultra-7-ram-16gb-512gb-wifi/</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>115,949,000</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-7-ram-16gb-256gb-ssd/</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
@@ -945,12 +941,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1294890000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://surfaceiran.com/p/67c46c53a2bbdf2a09ef123f/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2011%20OLED%20%D8%A7%D8%B3%D9%86%D9%BE%D8%AF%D8%B1%D8%A7%DA%AF%D9%88%D9%86%20X%20Elite%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%20512GB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20%DA%A9%D9%88%D9%BE%D8%A7%DB%8C%D9%84%D8%AA%20Surface%20Pro%20%D8%A7%D9%88%D9%84%D8%AF</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>121990000</v>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -971,7 +977,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://micropple.ir/product/%d8%ae%d8%b1%db%8c%d8%af-%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-11-surface-pro11-snapdragon-x-elite-12-core-16-512/</t>
         </is>
       </c>
     </row>
@@ -1001,8 +1007,16 @@
           <t>Black</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>654890000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://surfaceiran.com/p/67c47174a2bbdf2a09ef1265/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2011%20OLED%20%D8%A7%D8%B3%D9%86%D9%BE%D8%AF%D8%B1%D8%A7%DA%AF%D9%88%D9%86%20X%20Elite%20%D8%B1%D9%85%2064GB%20%D9%87%D8%A7%D8%B1%D8%AF%201TB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20%DA%A9%D9%88%D9%BE%D8%A7%DB%8C%D9%84%D8%AA%20Surface%20Pro%20%D8%A7%D9%88%D9%84%D8%AF</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1046,8 +1060,16 @@
           <t>Black</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>654889999</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://surfaceiran.com/p/67c46fd9a2bbdf2a09ef1251/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2011%20OLED%20%D8%A7%D8%B3%D9%86%D9%BE%D8%AF%D8%B1%D8%A7%DA%AF%D9%88%D9%86%20X%20Elite%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%201TB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20%DA%A9%D9%88%D9%BE%D8%A7%DB%8C%D9%84%D8%AA%20Surface%20Pro%20%D8%A7%D9%88%D9%84%D8%AF</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,33 +533,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Surface Pro 10</t>
+          <t>Surface Pro  11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ultra 5</t>
+          <t>x plus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8GB</t>
+          <t>16gb</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>256GB</t>
+          <t>512gb</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>808490000</t>
-        </is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>808490000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -567,7 +565,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>83590000</v>
+        <v>93990000</v>
       </c>
       <c r="I2" t="n">
         <v>80000000</v>
@@ -609,40 +607,38 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>https://micropple.ir/product/surface-pro-10-coreultra5-8-256-wifi/</t>
+          <t>https://micropple.ir/product/surface-pro11-snapdragon-x-plus-10-core-16-512/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Surface Pro 10</t>
+          <t>Surface Pro  11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ultra 5</t>
+          <t>x plus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16GB</t>
+          <t>16gb</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>256GB</t>
+          <t>1tb</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1126890000</t>
-        </is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1126890000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -650,7 +646,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>106490000</v>
+        <v>116990000</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -672,47 +668,47 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>https://micropple.ir/product/surface-pro-10-coreultra5-16-256-wifi/</t>
+          <t>https://micropple.ir/product/%d8%ae%d8%b1%db%8c%d8%af-%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-11-surface-pro11-snapdragon-x-plus-10-core-16-1tb/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Surface Pro 10</t>
+          <t>Surface Pro  11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ultra 5</t>
+          <t>x elite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16GB</t>
+          <t>16gb</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>512GB</t>
+          <t>256gb</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>654890000</t>
-        </is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>654890000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>https://surfaceiran.com/p/67c44c0ca2bbdf2a09ef11f5/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2010%20-%20Core%20Ultra%205%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%20512GB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20Surface%20Pro</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>115290000</v>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -725,40 +721,38 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://micropple.ir/product/%d8%ae%d8%b1%db%8c%d8%af-%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-11-surface-pro11-snapdragon-x-elite-12-core-16-256ssd/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Surface Pro 10</t>
+          <t>Surface Pro  11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ultra 7</t>
+          <t>x elite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16GB</t>
+          <t>16gb</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>256GB</t>
+          <t>512gb</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1214890000</t>
-        </is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1214890000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -766,7 +760,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>117990000</v>
+        <v>121990000</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -780,7 +774,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>117,990,000</t>
+          <t>123,290,000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -802,40 +796,18 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>https://micropple.ir/product/surface-pro-10-coreultra7-16-256-wifi/</t>
+          <t>https://micropple.ir/product/%d8%ae%d8%b1%db%8c%d8%af-%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-11-surface-pro11-snapdragon-x-elite-12-core-16-512/</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Surface Pro 10</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ultra 7</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16GB</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>512GB</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1299490000</t>
-        </is>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1299490000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -874,31 +846,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Surface Pro 11</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>X Elite</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>32GB</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1T</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -919,50 +871,34 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Surface Pro 11</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>X Elite</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16GB</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>512GB</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1294890000</t>
-        </is>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1294890000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>https://surfaceiran.com/p/67c46c53a2bbdf2a09ef123f/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2011%20OLED%20%D8%A7%D8%B3%D9%86%D9%BE%D8%AF%D8%B1%D8%A7%DA%AF%D9%88%D9%86%20X%20Elite%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%20512GB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20%DA%A9%D9%88%D9%BE%D8%A7%DB%8C%D9%84%D8%AA%20Surface%20Pro%20%D8%A7%D9%88%D9%84%D8%AF</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>121990000</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>122,990,000</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-surface-prox-elite-wi-fi-snapdragon-x-elite-16gb-512gb-ssd-%da%a9%d9%be%db%8c-2/</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
@@ -977,40 +913,18 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>https://micropple.ir/product/%d8%ae%d8%b1%db%8c%d8%af-%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-11-surface-pro11-snapdragon-x-elite-12-core-16-512/</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Surface Pro 11</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>X Elite</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>64GB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1T</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>654890000</t>
-        </is>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>654890000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1022,8 +936,16 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>235,490,000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%8811_-surface-pro11-oled-x-elite-12core-64gb-1tb-ssd/</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1035,35 +957,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Surface Pro 11</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>X Elite</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16GB</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1T</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>654889999</t>
-        </is>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>654889999</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1095,6 +995,81 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -593,8 +593,16 @@
           <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-10-surface-pro-10-ultra-5-ram-8gb-256gb-ssd-2/</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>89,990,000</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://parsanme.com/product/PI-39367178/Surface-Pro-11-Snapdragon-X-Plus-16GB-512GB-13inch?variant[color]=black</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>84,200,000</t>
@@ -715,8 +723,16 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>111,870,000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>https://parsanme.com/product/PI-93996743/Surface-Pro-11-Snapdragon-X-Elite-16GB-256GB-13inch?variant[color]=black</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
@@ -801,11 +817,31 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Surface Pro 10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ultra 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16gb</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>512gb</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
       <c r="F6" t="n">
         <v>1299490000</v>
       </c>
@@ -827,8 +863,16 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>111,499,000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://parsanme.com/product/PI-73239211/Microsoft-Surface-Pro-104-13inch-Core-Ultra-5-16GB-512GB-WiFi?variant[color]=graphite</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>129,500,000</t>
@@ -846,11 +890,31 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Surface Pro 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ultra 5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8gb</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>256gb</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -871,11 +935,31 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Surface Pro 10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ultra 5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16gb</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>512gb</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
       <c r="F8" t="n">
         <v>1294890000</v>
       </c>
@@ -899,8 +983,16 @@
           <t>https://surfacekar.com/product/%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-surface-prox-elite-wi-fi-snapdragon-x-elite-16gb-512gb-ssd-%da%a9%d9%be%db%8c-2/</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>111,499,000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https://parsanme.com/product/PI-73239211/Microsoft-Surface-Pro-104-13inch-Core-Ultra-5-16GB-512GB-WiFi?variant[color]=graphite</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
           <t>125,800,000</t>
@@ -918,11 +1010,31 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Surface Pro 10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ultra 7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>64gb</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1tb</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>silver</t>
+        </is>
+      </c>
       <c r="F9" t="n">
         <v>654890000</v>
       </c>
@@ -957,11 +1069,31 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Surface Pro 10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ultra 7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16gb</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1tb</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
       <c r="F10" t="n">
         <v>654889999</v>
       </c>

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -1022,12 +1022,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>64gb</t>
+          <t>8gb</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1tb</t>
+          <t>256gb</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1tb</t>
+          <t>256gb</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1109,8 +1109,16 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>114,650,000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>https://parsanme.com/product/PI-21978263/Microsoft-Surface-Pro-10-13inch-Core-Ultra-7-16GB-256GB-WiFi?variant[color]=graphite</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr">
         <is>
           <t>143,000,000</t>
@@ -1128,11 +1136,31 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Surface Pro 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ultra 7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>64gb</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1tb</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1142,8 +1170,16 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>238,599,000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>https://parsanme.com/product/PI-79671387/Microsoft-Surface-Pro-10-13inch-Core-Ultra-7-64GB-1TB-WiFi?variant[color]=graphite</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">

--- a/SampleSites.xlsx
+++ b/SampleSites.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>93990000</v>
+        <v>93490000</v>
       </c>
       <c r="I2" t="n">
         <v>80000000</v>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>116990000</v>
+        <v>117990000</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -764,7 +764,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>golden</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>121990000</v>
+        <v>120990000</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -850,7 +850,9 @@
           <t>https://surfaceiran.com/p/67c44ccaa2bbdf2a09ef1201/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2010%20-%20Core%20Ultra%207%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%20512GB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20Surface%20Pro</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>114990000</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
@@ -885,7 +887,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://micropple.ir/product/surface-pro-10-coreultra5-16-512-wifi/</t>
         </is>
       </c>
     </row>
@@ -968,7 +970,9 @@
           <t>https://surfaceiran.com/p/67c46c53a2bbdf2a09ef123f/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2011%20OLED%20%D8%A7%D8%B3%D9%86%D9%BE%D8%AF%D8%B1%D8%A7%DA%AF%D9%88%D9%86%20X%20Elite%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%20512GB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20%DA%A9%D9%88%D9%BE%D8%A7%DB%8C%D9%84%D8%AA%20Surface%20Pro%20%D8%A7%D9%88%D9%84%D8%AF</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>114990000</v>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1005,7 +1009,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://micropple.ir/product/surface-pro-10-coreultra5-16-512-wifi/</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1106,9 @@
           <t>https://surfaceiran.com/p/67c46fd9a2bbdf2a09ef1251/%D8%B3%D8%B1%D9%81%DB%8C%D8%B3%20%D9%BE%D8%B1%D9%88%2011%20OLED%20%D8%A7%D8%B3%D9%86%D9%BE%D8%AF%D8%B1%D8%A7%DA%AF%D9%88%D9%86%20X%20Elite%20%D8%B1%D9%85%2016GB%20%D9%87%D8%A7%D8%B1%D8%AF%201TB%20SSD%20%D9%85%D8%A7%DB%8C%DA%A9%D8%B1%D9%88%D8%B3%D8%A7%D9%81%D8%AA%20%DA%A9%D9%88%D9%BE%D8%A7%DB%8C%D9%84%D8%AA%20Surface%20Pro%20%D8%A7%D9%88%D9%84%D8%AF</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>116490000</v>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1131,7 +1137,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://micropple.ir/product/surface-pro-10-coreultra7-16-256-wifi/</t>
         </is>
       </c>
     </row>
@@ -1189,14 +1195,36 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Surface Pro 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>X Elite</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>32gb</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1tb</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>platinum</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>191490000</v>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1209,7 +1237,7 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://micropple.ir/product/%d8%ae%d8%b1%db%8c%d8%af-%d8%b3%d8%b1%d9%81%db%8c%d8%b3-%d9%be%d8%b1%d9%88-11-surface-pro11-snapdragon-x-elite-12-core-32-1tb-ssd/</t>
         </is>
       </c>
     </row>
